--- a/Kalshi vs Polymarket 候选对.xlsx
+++ b/Kalshi vs Polymarket 候选对.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\工作\Polymarket_vs_Kalshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B60321-511F-4EC1-8417-AA1547A7921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D2D1E0-B9E6-45B9-9E8E-797C16DA654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>What will Powell say during his speech on October 14?</t>
   </si>
   <si>
-    <t>Powell Mention General | Trade on Kalshi</t>
-  </si>
-  <si>
     <t>https://polymarket.com/event/what-will-powell-say-during-his-speech-on-october-14?tid=1760432331702</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>What will Bernie Sanders say during CNN town hall on October 15?</t>
   </si>
   <si>
-    <t>Bernie says | Trade on Kalshi</t>
-  </si>
-  <si>
     <t>What will Bernie Sanders say during CNN town...</t>
   </si>
   <si>
@@ -146,6 +140,14 @@
   </si>
   <si>
     <t>https://polymarket.com/event/highest-temperature-in-nyc-on-october-15?tid=1760517554638</t>
+  </si>
+  <si>
+    <t>https://kalshi.com/markets/kxberniemention/bernie-says/kxberniemention-25oct16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kalshi.com/markets/kxpowellmention/powell-mention-general-/kxpowellmention-25oct15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -851,7 +853,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -903,16 +905,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>10</v>
@@ -1026,13 +1028,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1056,22 +1058,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1095,19 +1097,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>10</v>
@@ -1134,19 +1136,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1200,10 +1202,10 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{E319B28D-8FF2-4D56-B875-294AF1B77B06}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{D3D8183E-E0F5-42A3-BCB9-E54BB6AEE108}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{C8FD8CE1-9BD2-446C-B54D-A511A28EC142}"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://kalshi.com/markets/kxpowellmention/powell-mention-general-/kxpowellmention-25oct15" xr:uid="{2E1390BF-98D3-4455-94EF-09D4CAF54C43}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{2E1390BF-98D3-4455-94EF-09D4CAF54C43}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{00A02CA8-93FD-4E8E-847A-55F784DE4E6B}"/>
     <hyperlink ref="C6" r:id="rId7" display="https://polymarket.com/event/what-will-bernie-sanders-say-during-cnn-town-hall-on-october-15" xr:uid="{B97761C8-BF56-41E7-8A10-1BAFD884F0A3}"/>
-    <hyperlink ref="E6" r:id="rId8" display="https://kalshi.com/markets/kxberniemention/bernie-says/kxberniemention-25oct16" xr:uid="{40A6C169-96BA-4E3B-9927-B21B84618EB0}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{40A6C169-96BA-4E3B-9927-B21B84618EB0}"/>
     <hyperlink ref="F6" r:id="rId9" display="https://polymarket.com/event/what-will-bernie-sanders-say-during-cnn-town-hall-on-october-15" xr:uid="{C9FE03DA-9C07-49E4-9A77-8479318D64C6}"/>
     <hyperlink ref="E7" r:id="rId10" xr:uid="{B180570F-EA64-4CD5-8504-90510C889FDA}"/>
     <hyperlink ref="F7" r:id="rId11" xr:uid="{0086D615-D842-4ED0-AA9F-EA7512FB155C}"/>

--- a/Kalshi vs Polymarket 候选对.xlsx
+++ b/Kalshi vs Polymarket 候选对.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\工作\Polymarket_vs_Kalshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D2D1E0-B9E6-45B9-9E8E-797C16DA654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E3DCC-5AE2-459F-AF95-A107763DADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>类型</t>
   </si>
@@ -58,81 +58,6 @@
 截止时间不一致</t>
   </si>
   <si>
-    <t>Crypto</t>
-  </si>
-  <si>
-    <t>Ripple price today at 12am EDT?</t>
-  </si>
-  <si>
-    <t>XRP price on October 16?</t>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxxrp/xrp-range/kxxrp-25oct1600</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/xrp-price-on-october-16?tid=1760451402280</t>
-  </si>
-  <si>
-    <t>Ethereum price today at 5pm EDT?</t>
-  </si>
-  <si>
-    <t>Ethereum price on October 15?</t>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxethd/ethereum-price-abovebelow/kxethd-25oct1517</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/ethereum-price-on-october-15?tid=1760490930083</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>What will Powell say during his Speech?</t>
-  </si>
-  <si>
-    <t>What will Powell say during his speech on October 14?</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/what-will-powell-say-during-his-speech-on-october-14?tid=1760432331702</t>
-  </si>
-  <si>
-    <t>深度尽调已完成</t>
-  </si>
-  <si>
-    <t>What will Bernie say during the CNN Town Hall?</t>
-  </si>
-  <si>
-    <t>What will Bernie Sanders say during CNN town hall on October 15?</t>
-  </si>
-  <si>
-    <t>What will Bernie Sanders say during CNN town...</t>
-  </si>
-  <si>
-    <t>Bitcoin price today at 5pm EDT?</t>
-  </si>
-  <si>
-    <t>Bitcoin price on October 15?</t>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxbtcd/bitcoin-price-abovebelow/kxbtcd-25oct1517</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/bitcoin-price-on-october-15?tid=1760490749430</t>
-  </si>
-  <si>
-    <t>Bitcoin price on Friday at 5pm EDT?</t>
-  </si>
-  <si>
-    <t>Bitcoin price on October 17?</t>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxbtcd/bitcoin-price-abovebelow/kxbtcd-25oct1717</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/bitcoin-price-on-october-17?tid=1760490631737</t>
-  </si>
-  <si>
     <t>Highest temperature in NYC on October 15?</t>
   </si>
   <si>
@@ -142,19 +67,35 @@
     <t>https://polymarket.com/event/highest-temperature-in-nyc-on-october-15?tid=1760517554638</t>
   </si>
   <si>
-    <t>https://kalshi.com/markets/kxberniemention/bernie-says/kxberniemention-25oct16</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxpowellmention/powell-mention-general-/kxpowellmention-25oct15</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">Kalshi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场</t>
+    </r>
+  </si>
+  <si>
+    <t>Polymarket 市场</t>
+  </si>
+  <si>
+    <t>65° to 66°</t>
+  </si>
+  <si>
+    <t>64-65°F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +174,33 @@
       <sz val="10"/>
       <color rgb="FFD4EDBC"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB8BFC6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -503,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +549,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,15 +833,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" thickBot="1">
+    <row r="1" spans="1:25" ht="26.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,16 +855,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -896,8 +883,10 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="64.5" thickBot="1">
+    <row r="2" spans="1:25" ht="64.5" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
@@ -905,22 +894,26 @@
         <v>8</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -935,31 +928,19 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:23" ht="51.75" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+    <row r="3" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -974,31 +955,19 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:23" ht="51.75" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+    <row r="4" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1013,31 +982,19 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:23" ht="77.25" thickBot="1">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+    <row r="5" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1052,31 +1009,19 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:23" ht="64.5" thickBot="1">
-      <c r="A6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+    <row r="6" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -1091,31 +1036,19 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:23" ht="51.75" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+    <row r="7" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1130,31 +1063,19 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:23" ht="51.75" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+    <row r="8" spans="1:25" ht="14.25" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1169,17 +1090,19 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:23" ht="14.25" thickBot="1">
+    <row r="9" spans="1:25" ht="14.25" thickBot="1">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1194,25 +1117,14 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{22288010-63D3-42D5-90AC-CF27C8264F62}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{E319B28D-8FF2-4D56-B875-294AF1B77B06}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{D3D8183E-E0F5-42A3-BCB9-E54BB6AEE108}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{C8FD8CE1-9BD2-446C-B54D-A511A28EC142}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{2E1390BF-98D3-4455-94EF-09D4CAF54C43}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00A02CA8-93FD-4E8E-847A-55F784DE4E6B}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://polymarket.com/event/what-will-bernie-sanders-say-during-cnn-town-hall-on-october-15" xr:uid="{B97761C8-BF56-41E7-8A10-1BAFD884F0A3}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{40A6C169-96BA-4E3B-9927-B21B84618EB0}"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://polymarket.com/event/what-will-bernie-sanders-say-during-cnn-town-hall-on-october-15" xr:uid="{C9FE03DA-9C07-49E4-9A77-8479318D64C6}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{B180570F-EA64-4CD5-8504-90510C889FDA}"/>
-    <hyperlink ref="F7" r:id="rId11" xr:uid="{0086D615-D842-4ED0-AA9F-EA7512FB155C}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{F7FEFDD4-56CF-4420-959E-6A6F607DA21B}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{02EB876B-352C-4C37-BBD0-487A389ABE89}"/>
-    <hyperlink ref="E2" r:id="rId14" xr:uid="{BBCFEABA-0E43-4F7D-9FDE-45920DCCF712}"/>
-    <hyperlink ref="F2" r:id="rId15" xr:uid="{4DF57453-8B51-42AE-A16C-1A33D6C78DBE}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{BBCFEABA-0E43-4F7D-9FDE-45920DCCF712}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{4DF57453-8B51-42AE-A16C-1A33D6C78DBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Kalshi vs Polymarket 候选对.xlsx
+++ b/Kalshi vs Polymarket 候选对.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\工作\Polymarket_vs_Kalshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E3DCC-5AE2-459F-AF95-A107763DADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA5F48-3B83-4670-A549-1D52C597586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>类型</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>验证备注</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>Highest temperature in NYC today?</t>
   </si>
   <si>
     <t>✅ Confirmed Match</t>
@@ -58,13 +52,59 @@
 截止时间不一致</t>
   </si>
   <si>
-    <t>Highest temperature in NYC on October 15?</t>
-  </si>
-  <si>
-    <t>https://kalshi.com/markets/kxhighny/highest-temperature-in-nyc/kxhighny-25oct15</t>
-  </si>
-  <si>
-    <t>https://polymarket.com/event/highest-temperature-in-nyc-on-october-15?tid=1760517554638</t>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>How high will Bitcoin get before end of month?</t>
+  </si>
+  <si>
+    <t>What price will Bitcoin hit in October?</t>
+  </si>
+  <si>
+    <t>https://kalshi.com/markets/kxbtcmaxm/how-high-will-bitcoin-get-this-month/kxbtcmaxm-25oct31</t>
+  </si>
+  <si>
+    <t>https://polymarket.com/event/what-price-will-bitcoin-hit-in-october-985?tid=1761017939179</t>
+  </si>
+  <si>
+    <t>Above $129999.99</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Above $134999.99</t>
+  </si>
+  <si>
+    <t>↑ 130k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑ 135k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Polymarket </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFDEDEDE"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>What price will Bitcoin hit in October?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kalshi.com/markets/kxbtcmaxm/how-high-will-bitcoin-get-this-month/kxbtcmaxm-25oct31</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,22 +120,14 @@
       </rPr>
       <t>市场</t>
     </r>
-  </si>
-  <si>
-    <t>Polymarket 市场</t>
-  </si>
-  <si>
-    <t>65° to 66°</t>
-  </si>
-  <si>
-    <t>64-65°F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,12 +180,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF18181B"/>
-      <name val="Open Sauce One"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -162,11 +188,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFB10202"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
@@ -190,17 +211,38 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFB8BFC6"/>
+      <sz val="10"/>
+      <color rgb="FFBFE0F6"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF18181B"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="__inter_09cb3e"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFF2F2F2"/>
-      <name val="Arial"/>
+      <color rgb="FFDEDEDE"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -229,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -389,61 +431,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
+        <color rgb="FF3E4791"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF3E4791"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF3E4791"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
       </right>
       <top style="medium">
         <color rgb="FF3E4791"/>
       </top>
       <bottom style="medium">
         <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF3E4791"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF3E4791"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,9 +520,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -535,31 +544,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -836,7 +845,7 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -855,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -887,32 +896,32 @@
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="64.5" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>10</v>
+      <c r="I2" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -931,16 +940,34 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="14"/>
+    <row r="3" spans="1:25" ht="64.5" thickBot="1">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
@@ -959,12 +986,12 @@
       <c r="Y3" s="9"/>
     </row>
     <row r="4" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
@@ -986,15 +1013,15 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1013,12 +1040,12 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
@@ -1043,12 +1070,12 @@
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1067,12 +1094,12 @@
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -1094,15 +1121,15 @@
       <c r="Y8" s="9"/>
     </row>
     <row r="9" spans="1:25" ht="14.25" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1121,10 +1148,13 @@
       <c r="Y9" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{BBCFEABA-0E43-4F7D-9FDE-45920DCCF712}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{4DF57453-8B51-42AE-A16C-1A33D6C78DBE}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://kalshi.com/markets/kxbtcmaxm/how-high-will-bitcoin-get-this-month/kxbtcmaxm-25oct31" xr:uid="{9FC44F1D-EDC5-424B-9F31-E8C9B61F9B0D}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{15EBB4A8-4D7F-4253-A048-7A70C7476EB1}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{C219D0E0-D263-4C41-ABDB-1D9A7CD0A28B}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{DF6FFDFB-4809-4260-988B-F1326188BECC}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{E7612DB3-08D1-4B48-9C76-1066AB158D1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1139,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1153,7 +1183,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
